--- a/hebrewOutputs/hebrewComparison_7.xlsx
+++ b/hebrewOutputs/hebrewComparison_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="118">
   <si>
     <t>Sentence</t>
   </si>
@@ -34,51 +34,51 @@
     <t xml:space="preserve">בסדר. בסדר. </t>
   </si>
   <si>
+    <t xml:space="preserve">מה הוא הבין כבר מה קורה איתו? </t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>אבא של רונן?</t>
+  </si>
+  <si>
+    <t>כן. של יואב.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>של יואב סליחה. נעים מאד,</t>
+  </si>
+  <si>
+    <t>היי, היי,</t>
+  </si>
+  <si>
+    <t>אני דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>היי, היי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא  עשינו לו את ה... את ה... </t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>אתה יודע קצת אתה מבין את הסיטואציה... את הבדיקות שעשינו</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t xml:space="preserve">מה הוא הבין כבר מה קורה איתו? </t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>אבא של רונן?</t>
-  </si>
-  <si>
-    <t>כן. של יואב.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>של יואב סליחה. נעים מאד,</t>
-  </si>
-  <si>
-    <t>היי, היי,</t>
-  </si>
-  <si>
-    <t>אני דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>היי, היי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא  עשינו לו את ה... את ה... </t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>אתה יודע קצת אתה מבין את הסיטואציה... את הבדיקות שעשינו</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
     <t xml:space="preserve">כן אא... </t>
   </si>
   <si>
@@ -133,6 +133,9 @@
     <t>כן ה... בוא נגיד שהסימנים אא שהיו פלוס כל מיני בדיקות שעשינו גרמו לנו לחשוב לכיוון הזה.</t>
   </si>
   <si>
+    <t>r/o</t>
+  </si>
+  <si>
     <t>אף אחד לא אמר לנו שום דבר.</t>
   </si>
   <si>
@@ -196,18 +199,12 @@
     <t xml:space="preserve">ו... וזה משהו שבאמת כאילו הוא הוא חדש לכם </t>
   </si>
   <si>
-    <t>r/o</t>
-  </si>
-  <si>
     <t>אבל זה לא אבל זה לא איזה משהו שאנחנו לא יודעים איך להתמודד איתו או לא יודעים איך לטפל בו. אא יש סך הכל אא...</t>
   </si>
   <si>
     <t>מדובר פה על מחלה כרונית לכל החיים.</t>
   </si>
   <si>
-    <t>checks</t>
-  </si>
-  <si>
     <t xml:space="preserve">נכון. מדובר פה על מחלה כרונית לכל החיים </t>
   </si>
   <si>
@@ -307,7 +304,7 @@
     <t>(לא נשמע) להגיד לי שעכשיו כל יום הולדת שהוא יילך הוא יצטרך להשגיח לא לאכול מהעוגה לא לאכול מהממתקים בזמן שכל שאר החברים שלו אוכלים כמה שבא להם?</t>
   </si>
   <si>
-    <t>?l/s</t>
+    <t>?reassure</t>
   </si>
   <si>
     <t>אא תראה,</t>
@@ -328,15 +325,15 @@
     <t>זאת אומרת זה לא משהו ש... שאם אתה לא תופס אותו בזמן או מתמודד איתו כמו שצריך אתה אתה אין אא אין לך שום אא שום אא בריחה ממנו. אתה מבין?</t>
   </si>
   <si>
-    <t>approve</t>
-  </si>
-  <si>
     <t>זאת אומרת יש היום גם טכנולוגיות חדישות של אא משאבות סוכר שהם יכולות, יכולות זה כמו איזשהם ביפרים כאלה ש... שמודדים את הסוכר במהלך היום</t>
   </si>
   <si>
     <t xml:space="preserve">זה מן אינסולין לפי הצורך ואז אין צורך בזריקה כל הזמן. </t>
   </si>
   <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
     <t>אא נכון צריך להקפיד על איזשהו דיאטה מסוימת, דיאטה מסוימת</t>
   </si>
   <si>
@@ -352,22 +349,19 @@
     <t xml:space="preserve">אבל אני רוצה להגיד לך שאני אני תמיד נמצא כאן. </t>
   </si>
   <si>
+    <t>אנחנו עכשיו ככה הכרנו ושהיה לכם איזשהו ביקור במיון אז אנחנו עוד לא מכירים כמו שצריך</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אבל אני מתעסק בדברים עבור בבית חולים</t>
+  </si>
+  <si>
     <t>orient</t>
   </si>
   <si>
-    <t>אנחנו עכשיו ככה הכרנו ושהיה לכם איזשהו ביקור במיון אז אנחנו עוד לא מכירים כמו שצריך</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אבל אני מתעסק בדברים עבור בבית חולים</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ותמיד הדלת שלי תהיה פתוחה בפניכם ואתם יכולים לשאול אותי כל שאלה ובבקשה ואנחנו ואנחנו נתכוונן ונפתור את זה. וזה לא זה לא...</t>
   </si>
   <si>
     <t>איך נפתור את זה? זה לכל החיים איך נפתור?</t>
-  </si>
-  <si>
-    <t>?reassure</t>
   </si>
   <si>
     <t xml:space="preserve">נפתור את זה הכוונה נתמודד ברמה כזאתי שאתם שאתם אא ש... שאנחנו נחיה עם זה. אוקיי, </t>
@@ -741,23 +735,23 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -768,18 +762,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -790,7 +784,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -801,7 +795,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -812,7 +806,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -823,24 +817,24 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -848,10 +842,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -859,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -870,10 +864,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -884,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -892,10 +886,10 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -903,10 +897,10 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -925,10 +919,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -947,10 +941,10 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -958,10 +952,10 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -969,10 +963,10 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -980,10 +974,10 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -991,59 +985,59 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -1054,18 +1048,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1076,112 +1070,112 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1189,10 +1183,10 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1200,40 +1194,40 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -1241,65 +1235,65 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
         <v>67</v>
       </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -1307,164 +1301,164 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
@@ -1483,266 +1477,266 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="s">
         <v>91</v>
-      </c>
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>96</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
         <v>107</v>
       </c>
-      <c r="B85" t="s">
-        <v>108</v>
-      </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
